--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2494960.741053285</v>
+        <v>2619621.63088743</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5545741.193495918</v>
+        <v>5855226.5487752</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.58895601590937</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>333.4018250378721</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>88.28805848859253</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>74.07925546865171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>400.7950794125001</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>62.8193815802778</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>14.278217595959</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1117,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>114.0767014514076</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>186.5972831705528</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>76.20806014784812</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>11.50965028448074</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>139.2321761483767</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1373,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>130.7821696128139</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1421,10 +1423,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1433,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1585,10 +1587,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>12.98865839254868</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1622,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1658,16 +1660,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>189.9858418180164</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>155.7059116376142</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.62192336847684</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>131.8790913410174</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>137.9552095881229</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2245,13 +2247,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>40.61315782650635</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.02740555137143</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>222.5091350341241</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,10 +2718,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>236.6560830795645</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2773,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2956,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>145.5691599806645</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>164.4369732840325</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,16 +3009,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>130.040089848451</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>121.9815308269506</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3427,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871633</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>98.15366458399269</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>25.98727664058491</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>103.7735584540694</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>4.378995526348881</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>67.94851011523079</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3955,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3980,19 +3982,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>401.3381602465708</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4135,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>63.08758251923051</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.359742195861859</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4192,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1773.401994551945</v>
+        <v>1143.559735997339</v>
       </c>
       <c r="C2" t="n">
-        <v>1750.541668605649</v>
+        <v>716.6590060106389</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.249047790649</v>
+        <v>379.889485770364</v>
       </c>
       <c r="E2" t="n">
-        <v>901.2721079385067</v>
+        <v>357.9529499586256</v>
       </c>
       <c r="F2" t="n">
-        <v>476.1479261279069</v>
+        <v>336.8691721884299</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>403.5871017449292</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>403.5871017449292</v>
       </c>
       <c r="M2" t="n">
-        <v>36.91199246082674</v>
+        <v>403.5871017449292</v>
       </c>
       <c r="N2" t="n">
-        <v>358.3859952497895</v>
+        <v>882.5260259873571</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1572.384561085423</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1572.384561085423</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1572.384561085423</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.920028249488</v>
+        <v>1564.704966293574</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.623162244782</v>
+        <v>1563.408100288869</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422926</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>393.2225928484409</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="L3" t="n">
-        <v>850.0084995511718</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="M3" t="n">
-        <v>850.0084995511718</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511718</v>
+        <v>1275.724116018676</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1754.663040261104</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1754.663040261104</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>945.0375769102468</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>773.0650137891628</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>609.7482409159335</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>443.540035068787</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>271.6782608433474</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>271.6782608433474</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>127.8819923515018</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="K4" t="n">
-        <v>36.91199246082674</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>391.6013137552475</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1385.086614473545</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="V4" t="n">
-        <v>1385.086614473545</v>
+        <v>1410.0559494498</v>
       </c>
       <c r="W4" t="n">
-        <v>1385.086614473545</v>
+        <v>1135.203545622313</v>
       </c>
       <c r="X4" t="n">
-        <v>1385.086614473545</v>
+        <v>1135.203545622313</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.259083697129</v>
+        <v>1135.203545622313</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1312.407503826393</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>907.5639892683118</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D5" t="n">
-        <v>484.2713684533122</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E5" t="n">
-        <v>58.29442860116974</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635576</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>950.4838058662885</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>2057.090037547357</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.552734122628</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y5" t="n">
-        <v>1732.255868117923</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273858</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>44.35863542273858</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>393.2225928484407</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511716</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511716</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.6237704712602</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="C7" t="n">
-        <v>214.6512073501762</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D7" t="n">
-        <v>51.33443447694694</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082674</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1742.234349487134</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>1602.260275267237</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V7" t="n">
-        <v>1320.548807875266</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W7" t="n">
-        <v>1045.696404047779</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X7" t="n">
-        <v>803.1325074935838</v>
+        <v>982.5559802912367</v>
       </c>
       <c r="Y7" t="n">
-        <v>576.7897391833259</v>
+        <v>982.5559802912367</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1632.333097780977</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C8" t="n">
-        <v>1205.432367794277</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D8" t="n">
-        <v>1186.180151019681</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E8" t="n">
-        <v>760.2032111675391</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>335.0790293569393</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1313.087264683184</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1657.117518828657</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1657.117518828657</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>1657.117518828657</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X8" t="n">
-        <v>1649.437924036808</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y8" t="n">
-        <v>1648.141058032103</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>308.6094817404178</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358747</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687.6418612791554</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="C10" t="n">
-        <v>515.6692981580713</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D10" t="n">
-        <v>375.0307363920342</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E10" t="n">
-        <v>375.0307363920342</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F10" t="n">
-        <v>203.1689621665946</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1799.725677711293</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1799.725677711293</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1628.425962247645</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1628.425962247645</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1346.714494855674</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.714494855674</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1104.150598301479</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y10" t="n">
-        <v>877.8078299912211</v>
+        <v>701.3071558651718</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1940.778795113075</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1513.878065126375</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1090.585444311376</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>664.6085044592331</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>239.4843226486333</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>107.3811210195284</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>435.0877085798951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>435.0877085798951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M11" t="n">
-        <v>1332.080299397015</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N11" t="n">
-        <v>2229.072890214134</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O11" t="n">
-        <v>3074.217540364946</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268075</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268075</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3519.845194023118</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3519.845194023118</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3162.355779149368</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2765.964429449715</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2765.964429449715</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.627159404605</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425907</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425907</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>1180.980547125497</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M12" t="n">
-        <v>1180.980547125497</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N12" t="n">
-        <v>1417.02640348073</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O12" t="n">
-        <v>1417.02640348073</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P12" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.0073295699513</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>668.0347664488672</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>504.7179935756379</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>338.5097877284915</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>338.5097877284915</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.723616382436</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1792.384268608336</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1512.19982010864</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.07996314647</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1499.07996314647</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>1256.516066592275</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>1030.173298282017</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>787.9925577384986</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>1684.985148555618</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>2153.578082946772</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>3050.570673763892</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O14" t="n">
-        <v>3050.570673763892</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P14" t="n">
-        <v>3050.570673763892</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268075</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3519.845194023118</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3519.845194023118</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3519.845194023118</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3327.940303297849</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2916.220304465596</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2510.883034420487</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>344.1817390425906</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>344.1817390425906</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N15" t="n">
-        <v>344.1817390425906</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>618.8093763575289</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>501.8265606017208</v>
+        <v>1013.237555833543</v>
       </c>
       <c r="C16" t="n">
-        <v>501.8265606017208</v>
+        <v>841.2649927124585</v>
       </c>
       <c r="D16" t="n">
-        <v>338.5097877284915</v>
+        <v>841.2649927124585</v>
       </c>
       <c r="E16" t="n">
-        <v>338.5097877284915</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>338.5097877284915</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>172.2528180227236</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2220.955940440293</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2050.820892959428</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1807.481545185327</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1527.297096685632</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V16" t="n">
-        <v>1245.585629293661</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W16" t="n">
-        <v>970.7332254661736</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1693289119787</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y16" t="n">
-        <v>501.8265606017208</v>
+        <v>1203.403524545608</v>
       </c>
     </row>
     <row r="17">
@@ -5498,43 +5500,43 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>456.2068044646703</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>1171.715112440169</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M17" t="n">
-        <v>2110.0395278175</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>3313.894682672831</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>3313.894682672831</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>4143.635082195253</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.3984947971121</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="C19" t="n">
-        <v>750.4259316760281</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>2002.531292319261</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.81982492729</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.471128373631</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X19" t="n">
-        <v>1338.907231819436</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y19" t="n">
-        <v>1112.564463509178</v>
+        <v>986.2298637519162</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,22 +5755,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>786.1869982294937</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L20" t="n">
-        <v>1715.81204584877</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M20" t="n">
-        <v>2720.098147267829</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5777,10 +5779,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>509.1843230306275</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1843230306275</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="D22" t="n">
-        <v>345.8675501573982</v>
+        <v>724.9609219739301</v>
       </c>
       <c r="E22" t="n">
-        <v>345.8675501573982</v>
+        <v>558.7527161267836</v>
       </c>
       <c r="F22" t="n">
-        <v>345.8675501573982</v>
+        <v>386.890941901344</v>
       </c>
       <c r="G22" t="n">
         <v>345.8675501573982</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2248.3446241004</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2248.3446241004</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2005.0052763263</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1724.820827826604</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V22" t="n">
-        <v>1443.109360434633</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W22" t="n">
-        <v>1168.256956607146</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X22" t="n">
-        <v>925.6930600529511</v>
+        <v>1304.786431869483</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.3502917426931</v>
+        <v>1078.443663559225</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1840.785377970594</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1560.600929470899</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1560.600929470899</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1285.748525643412</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>1043.184629089217</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>1043.184629089217</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>3608.081958945198</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>3436.109395824114</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>3272.792622950885</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>4829.050508413384</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>4548.866059913688</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>4267.154592521717</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>4267.154592521717</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>4024.590695967522</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>3798.247927657264</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>850.6571429016585</v>
+        <v>769.8982080594424</v>
       </c>
       <c r="C31" t="n">
-        <v>678.6845797805745</v>
+        <v>597.9256449383583</v>
       </c>
       <c r="D31" t="n">
-        <v>515.3678069073452</v>
+        <v>434.608872065129</v>
       </c>
       <c r="E31" t="n">
-        <v>368.3282513713204</v>
+        <v>268.4006662179826</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.018283751469</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1267.165879923982</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>1267.165879923982</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>1040.823111613724</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1191.617659878699</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.5863609803849</v>
+        <v>3401.365604982158</v>
       </c>
       <c r="C34" t="n">
-        <v>563.5863609803849</v>
+        <v>3229.393041861074</v>
       </c>
       <c r="D34" t="n">
-        <v>563.5863609803849</v>
+        <v>3066.076268987845</v>
       </c>
       <c r="E34" t="n">
-        <v>397.3781551332385</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>225.5163809077989</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>3591.531573694224</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,31 +6937,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P35" t="n">
-        <v>4798.855966881186</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7020,13 +7022,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>3918.135197142811</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>3746.162634021727</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>3416.637655301351</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>3244.775881075911</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.297351822124</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.958004048024</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.773555548329</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="V37" t="n">
-        <v>1380.062088156358</v>
+        <v>4852.060234546817</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.20968432887</v>
+        <v>4577.20783071933</v>
       </c>
       <c r="X37" t="n">
-        <v>862.6457877746757</v>
+        <v>4334.643934165135</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>4108.301165854877</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,19 +7174,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
         <v>3833.214576747413</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7248,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>700.2342829360799</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>201.4478291472353</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>201.4478291472353</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2209.427353121701</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2209.427353121701</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1654.390500794518</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2178.117784637993</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1751.217054651293</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1327.924433836293</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>72.48424976299954</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>72.48424976299954</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>969.4768405801187</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>1866.469431397238</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>2763.462022214357</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>3608.606672365169</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>3608.606672365169</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q41" t="n">
-        <v>3608.606672365169</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3519.845194023117</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3519.845194023117</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3519.845194023117</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3415.023417806885</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3003.303418974633</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2597.966148929523</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299954</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>147.3804814434841</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L42" t="n">
-        <v>984.1792895263902</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M42" t="n">
-        <v>1881.171880343509</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N42" t="n">
-        <v>1881.171880343509</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1058.043261283722</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="C43" t="n">
-        <v>886.0706981626379</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="D43" t="n">
-        <v>722.7539252894086</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="E43" t="n">
-        <v>556.5457194422621</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="F43" t="n">
-        <v>384.6839452168225</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145692</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T43" t="n">
-        <v>1839.422881921163</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U43" t="n">
-        <v>1559.238433421467</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V43" t="n">
-        <v>1559.238433421467</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.38602959398</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X43" t="n">
-        <v>1284.38602959398</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y43" t="n">
-        <v>1058.043261283722</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1769.989934326064</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1343.089204339364</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>937.6971232822222</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>511.7201834300797</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>2047.588607372513</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2944.581198189632</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N44" t="n">
-        <v>3050.570673763891</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O44" t="n">
-        <v>3050.570673763891</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763891</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>3403.28691719461</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3403.28691719461</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3403.28691719461</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3006.895567494957</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2595.175568662704</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2189.838298617594</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>942.113308572842</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L45" t="n">
-        <v>942.113308572842</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>812.508593489943</v>
+        <v>3440.513175819933</v>
       </c>
       <c r="C46" t="n">
-        <v>640.536030368859</v>
+        <v>3440.513175819933</v>
       </c>
       <c r="D46" t="n">
-        <v>576.8111995413534</v>
+        <v>3277.196402946704</v>
       </c>
       <c r="E46" t="n">
-        <v>410.6029936942069</v>
+        <v>3110.988197099558</v>
       </c>
       <c r="F46" t="n">
-        <v>238.7412194687674</v>
+        <v>2939.126422874118</v>
       </c>
       <c r="G46" t="n">
-        <v>72.48424976299954</v>
+        <v>2939.126422874118</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299954</v>
+        <v>2939.126422874118</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U46" t="n">
-        <v>1559.238433421467</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.526966029496</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.674562202009</v>
+        <v>4099.585809396452</v>
       </c>
       <c r="X46" t="n">
-        <v>1002.674562202009</v>
+        <v>3857.021912842257</v>
       </c>
       <c r="Y46" t="n">
-        <v>1002.674562202009</v>
+        <v>3630.679144531999</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>38.06915396219949</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7988,13 +7990,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>362.0008377727922</v>
+        <v>521.0563139884136</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.1676505099917</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8058,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>100.3451612536478</v>
+        <v>506.175924987301</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662956</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761899</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>116.4103974927393</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>329.1202152123216</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>115.1762876285907</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>362.1121742943703</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>375.4846162958655</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8389,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>129.0289299912522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>456.4271212953049</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>191.4123574746775</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>259.4889279983318</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8626,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.95688127998122</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719406</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>474.3820415103617</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>867.7664080100944</v>
@@ -8778,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>259.7731861481208</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8930,22 +8932,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701173</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>510.757459254133</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719405</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>300.5735435756952</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>386.8988393430025</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9182,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>859.4646438927559</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9264,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>360.2906876703342</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,7 +9488,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>749.810964578424</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.8553498857468</v>
+        <v>472.1756697257294</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10668,16 +10670,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>143.6953511146599</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10905,22 +10907,22 @@
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>776.6671919541075</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>151.96049528493</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>50.79610018248073</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11138,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>98.05199310655006</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>929.1499025498222</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>475.3690562152009</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11300,25 +11302,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369259</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N44" t="n">
-        <v>144.3396991720808</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>425.5295243305632</v>
       </c>
       <c r="M45" t="n">
-        <v>888.7930044375444</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>269.5135021736319</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>265.9056943255027</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>202.4415943846402</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>8.840212151060769</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>14.94630381122174</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>56.38521768392755</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>134.1486702010892</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>123.9812421822038</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.54082162832715</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.39681926223494</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>4.249871216794531</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>18.97696380801048</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>5.70618319915269</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>34.506033940224</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>42.61286918175955</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.44967133088807</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>66.44073542471749</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4464203654716</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>288.6538777485872</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>183.8853134985961</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>96.64588989347939</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>17.72153436027889</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>98.59602262526649</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>94.41114038126493</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>503465.7096745354</v>
+        <v>504154.1552101247</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>503465.7096745354</v>
+        <v>506383.1908193732</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>503465.7096745354</v>
+        <v>506383.1908193732</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402821.2791756278</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402821.2791756278</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506623.4227823462</v>
+        <v>506623.4227823461</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506623.4227823463</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506623.4227823462</v>
+        <v>506623.4227823463</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402821.2791756277</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402821.2791756277</v>
+        <v>506623.4227823463</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103254</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.4679103257</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.467910326</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="E2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.122902139</v>
       </c>
       <c r="F2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021388</v>
       </c>
       <c r="G2" t="n">
         <v>519878.1229021388</v>
       </c>
       <c r="H2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021389</v>
       </c>
       <c r="I2" t="n">
-        <v>519878.1229021383</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="J2" t="n">
-        <v>519878.1229021384</v>
+        <v>519878.1229021382</v>
       </c>
       <c r="K2" t="n">
         <v>519878.1229021384</v>
       </c>
       <c r="L2" t="n">
-        <v>519878.1229021385</v>
+        <v>519878.1229021383</v>
       </c>
       <c r="M2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="N2" t="n">
+        <v>519878.1229021387</v>
+      </c>
+      <c r="O2" t="n">
         <v>519878.1229021388</v>
       </c>
-      <c r="N2" t="n">
-        <v>519878.1229021388</v>
-      </c>
-      <c r="O2" t="n">
-        <v>413372.7938833157</v>
-      </c>
       <c r="P2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021387</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.668009602</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184160.7703768716</v>
+        <v>179728.0181786384</v>
       </c>
       <c r="C4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>34761.27815811224</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="F4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389552</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389551</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
@@ -26454,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="P4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138292.262645105</v>
+        <v>133865.5308399349</v>
       </c>
       <c r="C6" t="n">
-        <v>292917.9832632259</v>
+        <v>282530.6441568285</v>
       </c>
       <c r="D6" t="n">
-        <v>292917.9832632261</v>
+        <v>305937.4778304409</v>
       </c>
       <c r="E6" t="n">
-        <v>190759.8178957219</v>
+        <v>182640.3037031731</v>
       </c>
       <c r="F6" t="n">
-        <v>323523.485905324</v>
+        <v>398379.6602598135</v>
       </c>
       <c r="G6" t="n">
-        <v>296219.7401655038</v>
+        <v>398379.6602598136</v>
       </c>
       <c r="H6" t="n">
+        <v>398379.6602598137</v>
+      </c>
+      <c r="I6" t="n">
+        <v>398379.6602598132</v>
+      </c>
+      <c r="J6" t="n">
+        <v>271802.3916795242</v>
+      </c>
+      <c r="K6" t="n">
+        <v>379733.0599027933</v>
+      </c>
+      <c r="L6" t="n">
+        <v>398379.660259813</v>
+      </c>
+      <c r="M6" t="n">
+        <v>218315.7888046457</v>
+      </c>
+      <c r="N6" t="n">
         <v>398379.6602598134</v>
       </c>
-      <c r="I6" t="n">
-        <v>398379.6602598131</v>
-      </c>
-      <c r="J6" t="n">
-        <v>277657.1433170562</v>
-      </c>
-      <c r="K6" t="n">
-        <v>398379.6602598131</v>
-      </c>
-      <c r="L6" t="n">
-        <v>398379.6602598132</v>
-      </c>
-      <c r="M6" t="n">
-        <v>287570.3001506802</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>398379.6602598135</v>
       </c>
-      <c r="O6" t="n">
-        <v>323523.4859053238</v>
-      </c>
       <c r="P6" t="n">
-        <v>323523.4859053241</v>
+        <v>398379.6602598134</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374944</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>353.0609246327053</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>85.65786956897756</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.48282408853426</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.0000851585037</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>21.8366432743328</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>192.951978729274</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>150.267906192716</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>126.0615561372453</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>69.17407713899905</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>331.3947386960821</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>176.7546587404643</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>22.45142899612026</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.304553167390154</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>324.7212149383462</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34778,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>77.94592742031445</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>93.66335920376078</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>306.5447753208358</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>94.42738665299032</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>324.7212149383462</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>352.3878357835375</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35109,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>104.4093672264672</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>238.1458997847901</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35346,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.33731851519627</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374945</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>436.8066797001304</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>845.2513212958648</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>238.4301579345791</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374944</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>473.3261963547012</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374944</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>277.401653853473</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>357.478879857416</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35902,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>838.1216156792143</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>324.5260868755249</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>726.6390748562018</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.7306752811487</v>
+        <v>436.0509951211314</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>106.3043917586358</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>754.1521052398779</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>15.76345028768426</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>75.65275927321672</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>452.1971664929787</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374942</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N44" t="n">
-        <v>107.0600763376348</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>403.0144376163337</v>
       </c>
       <c r="M45" t="n">
-        <v>865.6962239252164</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2619621.63088743</v>
+        <v>2618924.969682339</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114758</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>333.4018250378721</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>94.29291973225355</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>88.28805848859253</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>45.09988471007716</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>347.9735897937583</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -913,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>62.8193815802778</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>114.0767014514076</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>188.7747254527018</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1147,10 +1147,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1195,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>76.20806014784812</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.50965028448074</v>
+        <v>168.9733955350581</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.2748171257525</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1581,7 +1581,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971636</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>155.7059116376142</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.8790913410174</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>40.61315782650635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>222.5091350341241</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,10 +2718,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6560830795645</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>164.4369732840325</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>130.040089848451</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444939</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>260.4446813871633</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>30.54723243149507</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>25.98727664058491</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>212.453617293334</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026568</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.378995526348881</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>4.359742195861859</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>101.769727493644</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1143.559735997339</v>
+        <v>1409.563699741687</v>
       </c>
       <c r="C2" t="n">
-        <v>716.6590060106389</v>
+        <v>982.6629697549872</v>
       </c>
       <c r="D2" t="n">
-        <v>379.889485770364</v>
+        <v>559.3703489399875</v>
       </c>
       <c r="E2" t="n">
-        <v>357.9529499586256</v>
+        <v>464.1249754730647</v>
       </c>
       <c r="F2" t="n">
-        <v>336.8691721884299</v>
+        <v>39.00079366246491</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182826</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="J2" t="n">
-        <v>401.3055941092129</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="K2" t="n">
-        <v>403.5871017449292</v>
+        <v>517.6410595347479</v>
       </c>
       <c r="L2" t="n">
-        <v>403.5871017449292</v>
+        <v>517.6410595347479</v>
       </c>
       <c r="M2" t="n">
-        <v>403.5871017449292</v>
+        <v>517.6410595347479</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873571</v>
+        <v>517.6410595347479</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229785</v>
+        <v>882.5260259873642</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229785</v>
+        <v>1361.464950229795</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733968</v>
+        <v>1817.550429733978</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.10676461588</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489011</v>
+        <v>1830.739470489021</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489011</v>
+        <v>1830.739470489021</v>
       </c>
       <c r="U2" t="n">
-        <v>1572.384561085423</v>
+        <v>1830.739470489021</v>
       </c>
       <c r="V2" t="n">
-        <v>1572.384561085423</v>
+        <v>1830.739470489021</v>
       </c>
       <c r="W2" t="n">
-        <v>1572.384561085423</v>
+        <v>1434.348120789367</v>
       </c>
       <c r="X2" t="n">
-        <v>1564.704966293574</v>
+        <v>1426.668525997519</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.408100288869</v>
+        <v>1425.371659992813</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237729</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412777</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565627</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294999</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000802</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422926</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338203</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="K3" t="n">
-        <v>796.7851917762482</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762482</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="M3" t="n">
-        <v>1275.724116018676</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018676</v>
+        <v>517.6410595347479</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261104</v>
+        <v>996.5799837771783</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261104</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905433</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438356</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.0375769102468</v>
+        <v>955.6262881107866</v>
       </c>
       <c r="C4" t="n">
-        <v>773.0650137891628</v>
+        <v>783.6537249897026</v>
       </c>
       <c r="D4" t="n">
-        <v>609.7482409159335</v>
+        <v>620.3369521164733</v>
       </c>
       <c r="E4" t="n">
-        <v>443.540035068787</v>
+        <v>454.1287462693268</v>
       </c>
       <c r="F4" t="n">
-        <v>271.6782608433474</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="G4" t="n">
-        <v>271.6782608433474</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>127.8819923515018</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231761</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647543</v>
+        <v>96.19346351647562</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>322.7210647223128</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>677.4103860167336</v>
       </c>
       <c r="M4" t="n">
         <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375118</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.10676461588</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.10676461588</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.10676461588</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841771</v>
+        <v>1935.10676461588</v>
       </c>
       <c r="U4" t="n">
-        <v>1691.767416841771</v>
+        <v>1935.10676461588</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.0559494498</v>
+        <v>1889.551325514792</v>
       </c>
       <c r="W4" t="n">
-        <v>1135.203545622313</v>
+        <v>1614.698921687305</v>
       </c>
       <c r="X4" t="n">
-        <v>1135.203545622313</v>
+        <v>1372.13502513311</v>
       </c>
       <c r="Y4" t="n">
-        <v>1135.203545622313</v>
+        <v>1145.792256822852</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7353935451185</v>
+        <v>458.5578883150744</v>
       </c>
       <c r="C5" t="n">
-        <v>439.8346635584186</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>420.5824467838229</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4573,22 +4573,22 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2057.090037547357</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1699.600622673607</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1699.600622673607</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X5" t="n">
-        <v>1287.880623841354</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.5433537962446</v>
+        <v>878.4062526066044</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.3900115791711</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>792.3900115791711</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483782</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.784971656295</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>982.5559802912367</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>982.5559802912367</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972.9074190595574</v>
+        <v>1438.597012500542</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>930.7948763386659</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4804,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4843,13 +4843,13 @@
         <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>1471.030487888973</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.052649355793</v>
+        <v>1859.742242796777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1392.755783351087</v>
+        <v>1454.404972751668</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>51.94486801115937</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N9" t="n">
-        <v>287.7093087981016</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.6812464869084</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="C10" t="n">
-        <v>689.6812464869084</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="D10" t="n">
-        <v>526.3644736136791</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E10" t="n">
-        <v>360.1562677665327</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -5004,10 +5004,10 @@
         <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>927.6499241754298</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.3071558651718</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5032,7 +5032,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,52 +5041,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O11" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
@@ -5123,19 +5123,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1529.586448057074</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
         <v>1910.990343986338</v>
@@ -5199,52 +5199,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302415</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100492</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976528</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2112.580693338089</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O14" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P14" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
@@ -5363,13 +5363,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O15" t="n">
         <v>1194.79262694784</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1013.237555833543</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>841.2649927124585</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>841.2649927124585</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1445.967421099803</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.403524545608</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1203.403524545608</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>456.2068044646703</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1171.715112440169</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2101.340160059446</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3105.626261478504</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>853.0186603771511</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C19" t="n">
-        <v>681.0460972560671</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D19" t="n">
-        <v>517.7293243828378</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828378</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519162</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y19" t="n">
-        <v>986.2298637519162</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="20">
@@ -5752,31 +5752,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>888.2776948471594</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>888.2776948471594</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>724.9609219739301</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>558.7527161267836</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>386.890941901344</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1822.202732251165</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.350328423678</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1304.786431869483</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1078.443663559225</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,22 +5989,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
         <v>4997.579335409525</v>
@@ -6077,13 +6077,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>853.0186603771511</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>681.0460972560671</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1840.785377970594</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1560.600929470899</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1560.600929470899</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1285.748525643412</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1043.184629089217</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1043.184629089217</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6244,7 +6244,7 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6308,16 +6308,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3608.081958945198</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3436.109395824114</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3272.792622950885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3106.584417103738</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5068.0970569786</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4829.050508413384</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4548.866059913688</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4267.154592521717</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4267.154592521717</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4024.590695967522</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3798.247927657264</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6472,13 +6472,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6548,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>769.8982080594424</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>597.9256449383583</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>434.608872065129</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>268.4006662179826</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>960.064176771508</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6706,19 +6706,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3401.365604982158</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3229.393041861074</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3066.076268987845</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3817.874342004482</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3591.531573694224</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,31 +6937,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7022,10 +7022,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3918.135197142811</v>
+        <v>1019.226866224295</v>
       </c>
       <c r="C37" t="n">
-        <v>3746.162634021727</v>
+        <v>847.2543031032105</v>
       </c>
       <c r="D37" t="n">
-        <v>3582.845861148498</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E37" t="n">
-        <v>3416.637655301351</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F37" t="n">
-        <v>3244.775881075911</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G37" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>5115.135670291426</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>5115.135670291426</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V37" t="n">
-        <v>4852.060234546817</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W37" t="n">
-        <v>4577.20783071933</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X37" t="n">
-        <v>4334.643934165135</v>
+        <v>1240.248625271204</v>
       </c>
       <c r="Y37" t="n">
-        <v>4108.301165854877</v>
+        <v>1209.39283493636</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>1782.102586447038</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1782.102586447038</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2209.427353121701</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2209.427353121701</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1929.242904622005</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1929.242904622005</v>
+        <v>1374.457283636686</v>
       </c>
       <c r="W40" t="n">
-        <v>1654.390500794518</v>
+        <v>1099.604879809199</v>
       </c>
       <c r="X40" t="n">
-        <v>1411.826604240323</v>
+        <v>857.040983255004</v>
       </c>
       <c r="Y40" t="n">
-        <v>1185.483835930065</v>
+        <v>630.698214944746</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,25 +7411,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409524</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7490,22 +7490,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1463.315149158289</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3344.544449335635</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3344.544449335635</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3344.544449335635</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3344.544449335635</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7657,16 +7657,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3105.626261478503</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478503</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629315</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q44" t="n">
         <v>5115.135670291426</v>
@@ -7727,28 +7727,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>772.98449592559</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3440.513175819933</v>
+        <v>684.0970829842501</v>
       </c>
       <c r="C46" t="n">
-        <v>3440.513175819933</v>
+        <v>512.124519863166</v>
       </c>
       <c r="D46" t="n">
-        <v>3277.196402946704</v>
+        <v>512.124519863166</v>
       </c>
       <c r="E46" t="n">
-        <v>3110.988197099558</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F46" t="n">
-        <v>2939.126422874118</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G46" t="n">
-        <v>2939.126422874118</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>2939.126422874118</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497734</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>4654.622661723634</v>
+        <v>2179.918036279922</v>
       </c>
       <c r="U46" t="n">
-        <v>4374.438213223939</v>
+        <v>1899.733587780227</v>
       </c>
       <c r="V46" t="n">
-        <v>4374.438213223939</v>
+        <v>1618.022120388255</v>
       </c>
       <c r="W46" t="n">
-        <v>4099.585809396452</v>
+        <v>1343.169716560768</v>
       </c>
       <c r="X46" t="n">
-        <v>3857.021912842257</v>
+        <v>1100.605820006574</v>
       </c>
       <c r="Y46" t="n">
-        <v>3630.679144531999</v>
+        <v>874.2630516963156</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>38.06915396219949</v>
+        <v>519.5412919487794</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,13 +7990,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884136</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099917</v>
+        <v>405.961632540485</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642013</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.175924987301</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662956</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675117</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761899</v>
+        <v>506.9485808761922</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>329.493058526209</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4103974927393</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8148,13 +8148,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>115.1762876285907</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836741556</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8221,10 +8221,10 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>571.1852249800525</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,13 +8233,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>455.6345869468033</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>259.4889279983318</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>89.67495492258647</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8771,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,19 +8935,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9011,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>745.2028786174529</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>386.8988393430025</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9485,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9725,16 +9725,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>217.3512730059682</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9956,19 +9956,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>187.0266028900253</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10196,10 +10196,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>25.72212415780718</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
@@ -10208,7 +10208,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10354,7 +10354,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10606,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>472.1756697257294</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10670,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10828,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646197</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,28 +10898,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>151.96049528493</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11153,10 +11153,10 @@
         <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>475.3690562152009</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1043.074428213577</v>
+        <v>517.6546514635589</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11375,16 +11375,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>425.5295243305632</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11399,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.98949189919253</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>71.98949189919537</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>8.840212151060769</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.38521768392755</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9812421822038</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24381,10 +24381,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>18.39681926223494</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>4.249871216794531</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>5.70618319915269</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>34.506033940224</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>18.44967133088807</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>193.5321081956603</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4464203654716</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>66.44073542471733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.8853134985961</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,16 +25797,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>94.41114038126493</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.136226802715</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504154.1552101247</v>
+        <v>504154.1552101248</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506623.4227823462</v>
+        <v>506623.4227823461</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506623.4227823461</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506623.4227823463</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506623.4227823463</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506623.4227823462</v>
+        <v>506623.4227823463</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506623.4227823463</v>
+        <v>506623.4227823462</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>538759.4679103256</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103255</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103259</v>
       </c>
       <c r="E2" t="n">
-        <v>519878.122902139</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="F2" t="n">
         <v>519878.1229021388</v>
@@ -26331,31 +26331,31 @@
         <v>519878.1229021388</v>
       </c>
       <c r="H2" t="n">
-        <v>519878.1229021389</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="I2" t="n">
         <v>519878.1229021384</v>
       </c>
       <c r="J2" t="n">
-        <v>519878.1229021382</v>
+        <v>519878.1229021383</v>
       </c>
       <c r="K2" t="n">
         <v>519878.1229021384</v>
       </c>
       <c r="L2" t="n">
-        <v>519878.1229021383</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="M2" t="n">
+        <v>519878.1229021387</v>
+      </c>
+      <c r="N2" t="n">
+        <v>519878.1229021385</v>
+      </c>
+      <c r="O2" t="n">
         <v>519878.1229021386</v>
       </c>
-      <c r="N2" t="n">
-        <v>519878.1229021387</v>
-      </c>
-      <c r="O2" t="n">
-        <v>519878.1229021388</v>
-      </c>
       <c r="P2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021386</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695911</v>
+        <v>162124.6960695919</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361233</v>
+        <v>23406.83367361156</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802887</v>
+        <v>126577.2685802893</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701988</v>
+        <v>18646.60035701927</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179728.0181786384</v>
+        <v>179728.0181786379</v>
       </c>
       <c r="C4" t="n">
         <v>165375.7390424566</v>
@@ -26426,22 +26426,22 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43748.40045389558</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="I4" t="n">
         <v>43748.40045389557</v>
       </c>
-      <c r="G4" t="n">
-        <v>43748.40045389552</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43748.40045389551</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>43748.40045389556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389557</v>
@@ -26450,7 +26450,7 @@
         <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389556</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216123</v>
+        <v>63041.22282216138</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,10 +26502,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
         <v>77750.06218842967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133865.5308399349</v>
+        <v>133865.5308399344</v>
       </c>
       <c r="C6" t="n">
-        <v>282530.6441568285</v>
+        <v>282530.6441568292</v>
       </c>
       <c r="D6" t="n">
-        <v>305937.4778304409</v>
+        <v>305937.4778304411</v>
       </c>
       <c r="E6" t="n">
-        <v>182640.3037031731</v>
+        <v>182589.2730409888</v>
       </c>
       <c r="F6" t="n">
-        <v>398379.6602598135</v>
+        <v>398328.6295976293</v>
       </c>
       <c r="G6" t="n">
-        <v>398379.6602598136</v>
+        <v>398328.6295976292</v>
       </c>
       <c r="H6" t="n">
-        <v>398379.6602598137</v>
+        <v>398328.6295976292</v>
       </c>
       <c r="I6" t="n">
-        <v>398379.6602598132</v>
+        <v>398328.6295976289</v>
       </c>
       <c r="J6" t="n">
-        <v>271802.3916795242</v>
+        <v>271751.3610173395</v>
       </c>
       <c r="K6" t="n">
-        <v>379733.0599027933</v>
+        <v>379682.0292406096</v>
       </c>
       <c r="L6" t="n">
-        <v>398379.660259813</v>
+        <v>398328.629597629</v>
       </c>
       <c r="M6" t="n">
-        <v>218315.7888046457</v>
+        <v>218264.7581424616</v>
       </c>
       <c r="N6" t="n">
-        <v>398379.6602598134</v>
+        <v>398328.629597629</v>
       </c>
       <c r="O6" t="n">
-        <v>398379.6602598135</v>
+        <v>398328.6295976291</v>
       </c>
       <c r="P6" t="n">
-        <v>398379.6602598134</v>
+        <v>398328.629597629</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.77669115397</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.77669115397</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.4511219616241</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.77669115397</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.4511219616241</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.77669115397</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.4511219616241</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>85.65786956897756</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>327.4242507213675</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27435,13 +27435,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.48282408853426</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>233.7944680079742</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>74.65813289307454</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>192.951978729274</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>126.0615561372453</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>233.8569972341311</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>331.3947386960821</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.7546587404643</v>
+        <v>19.29091348988689</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-2.875092756463952e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30149,7 +30149,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.304553167390154</v>
+        <v>483.77669115397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539676</v>
+        <v>368.5706731844609</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.77669115397</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.77669115397</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539676</v>
+        <v>483.77669115397</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>307.7222173213804</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.66335920376078</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34868,13 +34868,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>94.42738665299032</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709429079</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34941,10 +34941,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>432.5378064344753</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>238.1458997847901</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115332</v>
       </c>
       <c r="M13" t="n">
         <v>395.137166636617</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,19 +35655,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>723.4320374126243</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>357.478879857416</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.207037443577619</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37326,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>436.0509951211314</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319968</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>452.1971664929787</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1005.643165314145</v>
+        <v>480.2233885641272</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>403.0144376163337</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
